--- a/data/trans_orig/P36$cafe-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>954346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>936383</v>
+        <v>937073</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>969223</v>
+        <v>971131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9285807524424669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9111029765525693</v>
+        <v>0.9117738273167441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9430558632794612</v>
+        <v>0.9449122569095993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1209</v>
@@ -764,19 +764,19 @@
         <v>1230289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1211342</v>
+        <v>1211502</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1247888</v>
+        <v>1245873</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9369076893527927</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9224790722874336</v>
+        <v>0.9226005015273975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9503099356817609</v>
+        <v>0.9487752478427594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2169</v>
@@ -785,19 +785,19 @@
         <v>2184635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2157526</v>
+        <v>2159353</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2207532</v>
+        <v>2207949</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9332518129163315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9216709063919031</v>
+        <v>0.9224515241065129</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9430330399859397</v>
+        <v>0.9432110228287326</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>63842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50384</v>
+        <v>49268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81648</v>
+        <v>81545</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06211811455145875</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04902416223154579</v>
+        <v>0.04793779251284328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0794437662580014</v>
+        <v>0.079343899943377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -835,19 +835,19 @@
         <v>92116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75005</v>
+        <v>75604</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111200</v>
+        <v>113948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0701493711904588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05711858856730929</v>
+        <v>0.05757529739101289</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08468262906529925</v>
+        <v>0.08677545594409213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -856,19 +856,19 @@
         <v>155958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>130064</v>
+        <v>132775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>180891</v>
+        <v>181702</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06662331086144596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05556195184943606</v>
+        <v>0.05671985575994486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07727455013924818</v>
+        <v>0.07762119053971281</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>22379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13999</v>
+        <v>13597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33033</v>
+        <v>33897</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02177477990272587</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01362062147981918</v>
+        <v>0.01323034968339463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0321408671367143</v>
+        <v>0.03298218768282168</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -906,19 +906,19 @@
         <v>15613</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9035</v>
+        <v>8997</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25445</v>
+        <v>25311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0118896985619967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006880335862027602</v>
+        <v>0.006851602392576603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01937758638173714</v>
+        <v>0.01927536560893257</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -927,19 +927,19 @@
         <v>37992</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26412</v>
+        <v>27257</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51320</v>
+        <v>55039</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01622966610771691</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01128277869298078</v>
+        <v>0.01164373148916859</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02192337462124311</v>
+        <v>0.02351222485886682</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>26668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16670</v>
+        <v>17470</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37289</v>
+        <v>37627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02594775326942427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01621994340492267</v>
+        <v>0.01699805876808674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03628227539812082</v>
+        <v>0.0366110075398644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -977,19 +977,19 @@
         <v>15076</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8123</v>
+        <v>9143</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23947</v>
+        <v>25392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01148108893166429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006185732595525538</v>
+        <v>0.006962960606564865</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01823661504184685</v>
+        <v>0.0193366125306939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -998,19 +998,19 @@
         <v>41744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29335</v>
+        <v>30085</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56274</v>
+        <v>55508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01783256461067726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01253139156889842</v>
+        <v>0.0128520574898788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02403961075944251</v>
+        <v>0.02371242273979914</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>28814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19635</v>
+        <v>19586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41530</v>
+        <v>41627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02803562652769693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01910523547375603</v>
+        <v>0.01905729639080813</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04040873933393543</v>
+        <v>0.04050268172634438</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1048,19 +1048,19 @@
         <v>31137</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21720</v>
+        <v>20711</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42227</v>
+        <v>42286</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0237115644001932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01654036889986899</v>
+        <v>0.01577180706596952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03215731922561769</v>
+        <v>0.03220199644318588</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>60</v>
@@ -1069,19 +1069,19 @@
         <v>59950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46656</v>
+        <v>45939</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77212</v>
+        <v>77013</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02561001001254461</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01993075179664977</v>
+        <v>0.0196247121504885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03298405512522672</v>
+        <v>0.03289912923571139</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>786069</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>758258</v>
+        <v>758205</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>811448</v>
+        <v>811428</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7648469785534211</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7377869193216916</v>
+        <v>0.7377355191260938</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7895402764911316</v>
+        <v>0.7895214300366473</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1031</v>
@@ -1119,19 +1119,19 @@
         <v>1051349</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1020946</v>
+        <v>1025385</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1079616</v>
+        <v>1079746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8006387233855424</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.777485765728389</v>
+        <v>0.7808661942691234</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.822164940784293</v>
+        <v>0.8222639289001283</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1823</v>
@@ -1140,19 +1140,19 @@
         <v>1837418</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1797191</v>
+        <v>1796282</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1875778</v>
+        <v>1874857</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7849246381269737</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7677399492996382</v>
+        <v>0.7673514636126532</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8013115708700767</v>
+        <v>0.800917995555074</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>1539318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1512878</v>
+        <v>1515577</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1561864</v>
+        <v>1565647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9095314087128029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8939085814622163</v>
+        <v>0.8955033620826027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9228528453758588</v>
+        <v>0.9250882356533126</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1390</v>
@@ -1194,19 +1194,19 @@
         <v>1424840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1399313</v>
+        <v>1400429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1446156</v>
+        <v>1448151</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.898598949477097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.882500146853577</v>
+        <v>0.8832036755041219</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9120419376892512</v>
+        <v>0.9133000881295021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2890</v>
@@ -1215,19 +1215,19 @@
         <v>2964158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2933298</v>
+        <v>2930029</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2999198</v>
+        <v>2996690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9042432799054799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8948290853690577</v>
+        <v>0.8938317532008432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9149324720918987</v>
+        <v>0.9141674508486912</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>132454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110259</v>
+        <v>109620</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154439</v>
+        <v>157389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07826258653099433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06514807664203377</v>
+        <v>0.06477083753967541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09125262317767759</v>
+        <v>0.09299609324181554</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -1265,19 +1265,19 @@
         <v>193335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170241</v>
+        <v>169040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>218745</v>
+        <v>221712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1219299351796805</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1073656017162366</v>
+        <v>0.1066080435242864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1379549517780796</v>
+        <v>0.1398264884629283</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>311</v>
@@ -1286,19 +1286,19 @@
         <v>325789</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>291529</v>
+        <v>291372</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>362005</v>
+        <v>362784</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09938487561068654</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08893345270976639</v>
+        <v>0.08888559420708315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1104328010419687</v>
+        <v>0.1106706400151217</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>77595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61234</v>
+        <v>62015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95694</v>
+        <v>98472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04584801612499034</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03618118439820887</v>
+        <v>0.03664254659521915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05654228782357613</v>
+        <v>0.05818359322155068</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -1336,19 +1336,19 @@
         <v>47063</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34524</v>
+        <v>34705</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62316</v>
+        <v>61668</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0296808726705358</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02177282337905856</v>
+        <v>0.02188719830810092</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03930035642262255</v>
+        <v>0.03889186937187199</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>118</v>
@@ -1357,19 +1357,19 @@
         <v>124657</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103207</v>
+        <v>103851</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149548</v>
+        <v>149110</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03802782350498072</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03148418410622963</v>
+        <v>0.03168072375099439</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04562104066298021</v>
+        <v>0.04548731896932088</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>33928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23911</v>
+        <v>24677</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47632</v>
+        <v>46644</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02004706256518613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01412793786146947</v>
+        <v>0.01458086773181867</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02814411727648002</v>
+        <v>0.02756046172294455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1407,19 +1407,19 @@
         <v>30590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21369</v>
+        <v>22353</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43547</v>
+        <v>42686</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0192922017926634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01347661137839033</v>
+        <v>0.01409755799796218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02746373547519843</v>
+        <v>0.0269203679640423</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -1428,19 +1428,19 @@
         <v>64518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49482</v>
+        <v>50279</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80889</v>
+        <v>80805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01968192962385687</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01509483068210205</v>
+        <v>0.01533813079330558</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02467579978427227</v>
+        <v>0.02465022741593056</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>23584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15250</v>
+        <v>14808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35882</v>
+        <v>35825</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01393470695960694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009010428156703021</v>
+        <v>0.008749713076978523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02120133238853836</v>
+        <v>0.02116784721101861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1478,19 +1478,19 @@
         <v>21252</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13349</v>
+        <v>14128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31426</v>
+        <v>33664</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01340291792498342</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008418582793032611</v>
+        <v>0.008909976970407357</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01981943474157659</v>
+        <v>0.02123101737223861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -1499,19 +1499,19 @@
         <v>44836</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31562</v>
+        <v>33065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58800</v>
+        <v>59929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01367747582315537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009628217170853349</v>
+        <v>0.01008677176253706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01793753790462681</v>
+        <v>0.01828197990981567</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>1296831</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1260770</v>
+        <v>1260726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1329261</v>
+        <v>1330811</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7662536937161637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.744946664892024</v>
+        <v>0.7449206493241844</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7854157656773598</v>
+        <v>0.7863313641471161</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1204</v>
@@ -1549,19 +1549,19 @@
         <v>1230158</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1199666</v>
+        <v>1194995</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1263362</v>
+        <v>1260787</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7758196524817489</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7565890650454489</v>
+        <v>0.7536436289604853</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7967598410428812</v>
+        <v>0.7951361665248847</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2468</v>
@@ -1570,19 +1570,19 @@
         <v>2526989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2477485</v>
+        <v>2478708</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>2575713</v>
+        <v>2572236</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7708808339622245</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7557791229825174</v>
+        <v>0.7561524169626324</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7857444661295325</v>
+        <v>0.7846836972686073</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>497992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>483182</v>
+        <v>481180</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>511373</v>
+        <v>510591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9060351256999706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8790901508575576</v>
+        <v>0.8754478265115007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9303800524046427</v>
+        <v>0.9289566249793214</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>414</v>
@@ -1624,19 +1624,19 @@
         <v>435817</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>422275</v>
+        <v>421921</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>446965</v>
+        <v>446324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.914789133718186</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.886364683529493</v>
+        <v>0.8856212118840269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9381901944635109</v>
+        <v>0.9368438430625726</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>889</v>
@@ -1645,19 +1645,19 @@
         <v>933809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>912940</v>
+        <v>912861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>950652</v>
+        <v>951255</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9100997513531143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8897607450295693</v>
+        <v>0.8896833953291153</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9265152712889884</v>
+        <v>0.927103026525115</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>68323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53756</v>
+        <v>53409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86851</v>
+        <v>86476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1243053932431396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09780166913782631</v>
+        <v>0.09717030617395576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1580148971511328</v>
+        <v>0.1573318928175651</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -1695,19 +1695,19 @@
         <v>73837</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59140</v>
+        <v>59408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91597</v>
+        <v>92537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1549852266735786</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1241356895377303</v>
+        <v>0.1246991156591566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1922650017997555</v>
+        <v>0.1942366432129086</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -1716,19 +1716,19 @@
         <v>142160</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120086</v>
+        <v>118954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>164973</v>
+        <v>167056</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1385505296122241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1170371249501548</v>
+        <v>0.1159336623756572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1607840597703535</v>
+        <v>0.1628144879225799</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>18018</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10967</v>
+        <v>10105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28454</v>
+        <v>30349</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03278190684731189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01995250848907842</v>
+        <v>0.0183839223735532</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05176902647515287</v>
+        <v>0.05521657229550597</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1766,19 +1766,19 @@
         <v>7983</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3582</v>
+        <v>3237</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16933</v>
+        <v>15719</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01675556910070777</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007517946658137818</v>
+        <v>0.006795310703341073</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03554361027033302</v>
+        <v>0.03299469622457436</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -1787,19 +1787,19 @@
         <v>26001</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16623</v>
+        <v>16844</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38700</v>
+        <v>38685</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02534062242133855</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01620095137921719</v>
+        <v>0.01641593392407548</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03771769846753453</v>
+        <v>0.03770251607290408</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>6946</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3482</v>
+        <v>2742</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14983</v>
+        <v>14135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01263668723934632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006334750020494943</v>
+        <v>0.004988783100159006</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02725954224760468</v>
+        <v>0.0257169623604389</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1837,19 +1837,19 @@
         <v>7884</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3573</v>
+        <v>3370</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15394</v>
+        <v>15858</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01654800390173675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007499598050587601</v>
+        <v>0.007074457590137947</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0323133623945701</v>
+        <v>0.03328654448579052</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1858,19 +1858,19 @@
         <v>14829</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8288</v>
+        <v>8268</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25527</v>
+        <v>24135</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0144527739975992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008077807071303164</v>
+        <v>0.008058281384924782</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02487930990268617</v>
+        <v>0.02352267020264742</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>6959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3258</v>
+        <v>2759</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15169</v>
+        <v>13447</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01266025384910768</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005928181276933362</v>
+        <v>0.005020307181081346</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02759809930376993</v>
+        <v>0.02446566670649055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>3142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8481</v>
+        <v>8194</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006595181277018146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002038071815508343</v>
+        <v>0.00202837270724871</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0178008889165621</v>
+        <v>0.01719957626278028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1929,19 +1929,19 @@
         <v>10101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4774</v>
+        <v>5070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18230</v>
+        <v>18704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009844143844022392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004652756152129395</v>
+        <v>0.004941447805059909</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01776750489593309</v>
+        <v>0.01822894625529725</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>416877</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>395961</v>
+        <v>392776</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>436654</v>
+        <v>436650</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7584566162916008</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7204026460082527</v>
+        <v>0.7146078461253917</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7944386524682169</v>
+        <v>0.7944307706931614</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>338</v>
@@ -1979,19 +1979,19 @@
         <v>355499</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>334748</v>
+        <v>334741</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>374400</v>
+        <v>374967</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7462014616762896</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7026440881720631</v>
+        <v>0.7026296975850219</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7858748623219545</v>
+        <v>0.7870639686756056</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>733</v>
@@ -2000,19 +2000,19 @@
         <v>772377</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>739684</v>
+        <v>743657</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>799371</v>
+        <v>800965</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7527663523885993</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7209033934777972</v>
+        <v>0.7247756157693537</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7790751368739578</v>
+        <v>0.7806288948410032</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>2991657</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2955718</v>
+        <v>2953928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3023218</v>
+        <v>3020740</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9149311682843065</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9039400913492965</v>
+        <v>0.9033925975262224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9245835825988737</v>
+        <v>0.9238257157456615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3013</v>
@@ -2054,19 +2054,19 @@
         <v>3090946</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3053232</v>
+        <v>3057779</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3120480</v>
+        <v>3119946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9157885395949378</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9046145895018702</v>
+        <v>0.9059617807581557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.924538944448177</v>
+        <v>0.9243807307982638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5948</v>
@@ -2075,19 +2075,19 @@
         <v>6082602</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6036409</v>
+        <v>6033682</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6123908</v>
+        <v>6130367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.915366650841672</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9084150822093423</v>
+        <v>0.9080046180415099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9215827439978926</v>
+        <v>0.9225547367798649</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>264619</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233631</v>
+        <v>234690</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>297642</v>
+        <v>298646</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08092771402296287</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07145092058494967</v>
+        <v>0.07177480802654362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09102700855034014</v>
+        <v>0.09133421457372747</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>347</v>
@@ -2125,19 +2125,19 @@
         <v>359288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322849</v>
+        <v>320719</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395398</v>
+        <v>396128</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1064501095621658</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0956539817037276</v>
+        <v>0.09502296210320423</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.117148927162351</v>
+        <v>0.1173653266526122</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>597</v>
@@ -2146,19 +2146,19 @@
         <v>623906</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>574805</v>
+        <v>578029</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>668044</v>
+        <v>674286</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09389124329165648</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08650196272691862</v>
+        <v>0.08698712821836836</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1005334747727446</v>
+        <v>0.101472852058929</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>117992</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>96536</v>
+        <v>96527</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>142491</v>
+        <v>142687</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.036085128276868</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0295233840722469</v>
+        <v>0.02952055424123693</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04357757609869251</v>
+        <v>0.04363749292203995</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -2196,19 +2196,19 @@
         <v>70658</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54825</v>
+        <v>55504</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88941</v>
+        <v>90267</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0209346470152078</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01624361351810361</v>
+        <v>0.0164447883492774</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02635154569324247</v>
+        <v>0.02674437373605118</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>177</v>
@@ -2217,19 +2217,19 @@
         <v>188650</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>163203</v>
+        <v>161919</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219095</v>
+        <v>218134</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02838978059805604</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02456034988470497</v>
+        <v>0.02436705490352887</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03297139635314197</v>
+        <v>0.03282689570591636</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>67542</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52588</v>
+        <v>52959</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85733</v>
+        <v>84375</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02065608437713514</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01608286133493024</v>
+        <v>0.01619647215377049</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02621956275492163</v>
+        <v>0.02580426748876458</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2267,19 +2267,19 @@
         <v>53550</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39770</v>
+        <v>41210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69967</v>
+        <v>67147</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01586587840357183</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01178314648780806</v>
+        <v>0.01220967101594633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02073001770390494</v>
+        <v>0.01989433497439333</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -2288,19 +2288,19 @@
         <v>121092</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100122</v>
+        <v>100583</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>143837</v>
+        <v>145962</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01822300652415793</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01506729803006513</v>
+        <v>0.01513667288978565</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02164596317607302</v>
+        <v>0.02196577478352129</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>59356</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46750</v>
+        <v>45177</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77135</v>
+        <v>77380</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01815258780724669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01429753941424679</v>
+        <v>0.01381634488042936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02359012662425734</v>
+        <v>0.0236648487505724</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2338,19 +2338,19 @@
         <v>55531</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43053</v>
+        <v>42584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>72090</v>
+        <v>72626</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01645265441210019</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01275566377236005</v>
+        <v>0.01261682350624962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02135878461099495</v>
+        <v>0.02151756395934763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>114</v>
@@ -2359,19 +2359,19 @@
         <v>114886</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93151</v>
+        <v>94485</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>137223</v>
+        <v>137595</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01728914470728525</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01401823320692411</v>
+        <v>0.01421893293507369</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02065066394868495</v>
+        <v>0.02070663838609875</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>2499777</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2448234</v>
+        <v>2451205</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2548410</v>
+        <v>2548211</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7645008964609099</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7487376326431997</v>
+        <v>0.7496460589564471</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7793740457275549</v>
+        <v>0.77931317522743</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2573</v>
@@ -2409,19 +2409,19 @@
         <v>2637007</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2588674</v>
+        <v>2589470</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2683038</v>
+        <v>2684251</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7812950491013528</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7669750086266356</v>
+        <v>0.7672109573682828</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7949332181658507</v>
+        <v>0.795292612052128</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5024</v>
@@ -2430,19 +2430,19 @@
         <v>5136784</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5070274</v>
+        <v>5067651</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5207399</v>
+        <v>5200084</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7730311102083961</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7630220550640877</v>
+        <v>0.7626273904366732</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7836579363485385</v>
+        <v>0.7825570824425695</v>
       </c>
     </row>
     <row r="28">
@@ -2702,19 +2702,19 @@
         <v>899733</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>880584</v>
+        <v>881662</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>916187</v>
+        <v>915548</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9250395554839184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.905352216849264</v>
+        <v>0.9064598059440052</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9419565970706569</v>
+        <v>0.9412994849074594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1187</v>
@@ -2723,19 +2723,19 @@
         <v>1273833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1257378</v>
+        <v>1256995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1288647</v>
+        <v>1287739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9536366183169208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9413176274251205</v>
+        <v>0.9410305839072443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9647267872935993</v>
+        <v>0.9640470276134784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2026</v>
@@ -2744,19 +2744,19 @@
         <v>2173567</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2148351</v>
+        <v>2150105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2196128</v>
+        <v>2196243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9415873021929457</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9306640789458073</v>
+        <v>0.9314235318881156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9513608416073279</v>
+        <v>0.95141044508062</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>86935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69095</v>
+        <v>69783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106315</v>
+        <v>107718</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08938010086751304</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07103838780757857</v>
+        <v>0.07174536371726649</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1093054204680088</v>
+        <v>0.1107478216559826</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -2794,19 +2794,19 @@
         <v>133215</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113123</v>
+        <v>110349</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>159218</v>
+        <v>154254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09972961577418374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0846882356810191</v>
+        <v>0.0826109336084887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1191963417734783</v>
+        <v>0.1154802871493935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>203</v>
@@ -2815,19 +2815,19 @@
         <v>220150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>189727</v>
+        <v>192365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249619</v>
+        <v>250395</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09536886804395348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08218943620022445</v>
+        <v>0.08333246052917437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1081345278235496</v>
+        <v>0.1084707369896735</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>38671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26993</v>
+        <v>27551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52042</v>
+        <v>51896</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03975896326326916</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02775187801795704</v>
+        <v>0.02832599238649712</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0535058242302236</v>
+        <v>0.05335527262995644</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -2865,19 +2865,19 @@
         <v>25403</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16256</v>
+        <v>16569</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38461</v>
+        <v>37032</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01901774498282624</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01216979172089027</v>
+        <v>0.01240381036580914</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0287934436158097</v>
+        <v>0.02772362925017086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -2886,19 +2886,19 @@
         <v>64074</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47502</v>
+        <v>48783</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79516</v>
+        <v>81313</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0277570164708411</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02057791190193431</v>
+        <v>0.02113273069419188</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03444613660942757</v>
+        <v>0.03522464901400121</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>24706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16127</v>
+        <v>15819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38322</v>
+        <v>36515</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02540080700926444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01658023448773453</v>
+        <v>0.01626376187696833</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03940029016552554</v>
+        <v>0.03754177118759022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2936,19 +2936,19 @@
         <v>9084</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4038</v>
+        <v>4213</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17944</v>
+        <v>17706</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006800443312836626</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00302320312483134</v>
+        <v>0.003153947861084994</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01343320536404935</v>
+        <v>0.01325561300585907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2957,19 +2957,19 @@
         <v>33790</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23194</v>
+        <v>21823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47953</v>
+        <v>46896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01463766993670238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01004756185019723</v>
+        <v>0.00945373381420277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02077307973665216</v>
+        <v>0.02031542634588988</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>14650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7915</v>
+        <v>7454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26815</v>
+        <v>24943</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01506243870886238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008137570925215061</v>
+        <v>0.007663352739764456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0275687270689494</v>
+        <v>0.0256447232373333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -3007,19 +3007,19 @@
         <v>13802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7544</v>
+        <v>8199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22544</v>
+        <v>23261</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01033279291030294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005647935645784281</v>
+        <v>0.006138286527452763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0168771162470423</v>
+        <v>0.01741420941051108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -3028,19 +3028,19 @@
         <v>28453</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19034</v>
+        <v>18773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42116</v>
+        <v>43455</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0123256198559956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008245431144988382</v>
+        <v>0.008132400282481841</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01824471802337092</v>
+        <v>0.0188248669390448</v>
       </c>
     </row>
     <row r="9">
@@ -3057,19 +3057,19 @@
         <v>774630</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>747025</v>
+        <v>745812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>798017</v>
+        <v>800503</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7964177320649073</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7680365595198255</v>
+        <v>0.7667886537069757</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8204627857161205</v>
+        <v>0.8230183461473574</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1053</v>
@@ -3078,19 +3078,19 @@
         <v>1133501</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1107183</v>
+        <v>1106461</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1158885</v>
+        <v>1158589</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8485784354182258</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8288764530827347</v>
+        <v>0.8283355284149855</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8675820838407753</v>
+        <v>0.867360834653221</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1775</v>
@@ -3099,19 +3099,19 @@
         <v>1908131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1868611</v>
+        <v>1869929</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1942004</v>
+        <v>1945179</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.826600625752133</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8094805233955217</v>
+        <v>0.8100518929645372</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8412745175720974</v>
+        <v>0.8426497727584983</v>
       </c>
     </row>
     <row r="10">
@@ -3132,19 +3132,19 @@
         <v>1784564</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1757820</v>
+        <v>1754064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1809743</v>
+        <v>1808746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9099832068324303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8963458478457992</v>
+        <v>0.8944306016089728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9228220669508895</v>
+        <v>0.9223139505240358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1497</v>
@@ -3153,19 +3153,19 @@
         <v>1608673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1584769</v>
+        <v>1584200</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1632129</v>
+        <v>1631735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.91668938720244</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9030680053152126</v>
+        <v>0.9027441637113769</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9300560202803355</v>
+        <v>0.9298312221978537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3187</v>
@@ -3174,19 +3174,19 @@
         <v>3393237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3356796</v>
+        <v>3355215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3430130</v>
+        <v>3427812</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9131502114142871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9033435153247767</v>
+        <v>0.9029182264777539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9230783884713877</v>
+        <v>0.92245464826524</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>240805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>209218</v>
+        <v>209680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269252</v>
+        <v>271584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1227911297450419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1066842343197379</v>
+        <v>0.1069199927269153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1372967754871469</v>
+        <v>0.1384858334830258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -3224,19 +3224,19 @@
         <v>227367</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199779</v>
+        <v>198467</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255773</v>
+        <v>255984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1295635560283654</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1138423092267797</v>
+        <v>0.1130946495452363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1457504487785507</v>
+        <v>0.1458707218489262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>437</v>
@@ -3245,19 +3245,19 @@
         <v>468173</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>426737</v>
+        <v>426881</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>510801</v>
+        <v>511702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.125989419067156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1148387352193118</v>
+        <v>0.1148774774562143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1374611663396424</v>
+        <v>0.1377034647700077</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>92400</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75893</v>
+        <v>73819</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112771</v>
+        <v>112111</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04711659846888689</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03869947914147923</v>
+        <v>0.03764180741831056</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05750418794846631</v>
+        <v>0.05716756287809328</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -3295,19 +3295,19 @@
         <v>50201</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36756</v>
+        <v>36553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65383</v>
+        <v>66105</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02860649583898214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02094503847655788</v>
+        <v>0.02082935654191464</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0372579471764365</v>
+        <v>0.03766954832819654</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>137</v>
@@ -3316,19 +3316,19 @@
         <v>142601</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122028</v>
+        <v>120457</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>170555</v>
+        <v>166662</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0383751724103654</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03283868450061175</v>
+        <v>0.0324159264396857</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04589792947912296</v>
+        <v>0.04485019005781106</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>52560</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39006</v>
+        <v>38601</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69366</v>
+        <v>70361</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02680134074265633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01989015209440006</v>
+        <v>0.01968315151661152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03537095630615759</v>
+        <v>0.03587853341356373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -3366,19 +3366,19 @@
         <v>50315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37431</v>
+        <v>36168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66511</v>
+        <v>66605</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02867168746075871</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02132984111515374</v>
+        <v>0.02060997188035048</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03790066512810631</v>
+        <v>0.03795412826177434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -3387,19 +3387,19 @@
         <v>102875</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84077</v>
+        <v>83879</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125855</v>
+        <v>126398</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02768461502087001</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02262577725076177</v>
+        <v>0.02257245584524634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03386881141374758</v>
+        <v>0.03401491133630152</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>18337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11031</v>
+        <v>11251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28058</v>
+        <v>28336</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009350405530965744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005625066730058182</v>
+        <v>0.005737323736416639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01430707616138303</v>
+        <v>0.01444902800243415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -3437,19 +3437,19 @@
         <v>16922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9682</v>
+        <v>10679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26440</v>
+        <v>28179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009642984572563799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005517433937985809</v>
+        <v>0.006085595356455222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01506660718167774</v>
+        <v>0.01605772870668601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -3458,19 +3458,19 @@
         <v>35259</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24721</v>
+        <v>25127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48417</v>
+        <v>48896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009488576459001039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006652689966975609</v>
+        <v>0.00676177745703526</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01302955817571039</v>
+        <v>0.01315830063208514</v>
       </c>
     </row>
     <row r="15">
@@ -3487,19 +3487,19 @@
         <v>1573033</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1538443</v>
+        <v>1538175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1610864</v>
+        <v>1607477</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8021192372065695</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7844812394185265</v>
+        <v>0.7843447993033411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8214101874793036</v>
+        <v>0.8196830762043691</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1329</v>
@@ -3508,19 +3508,19 @@
         <v>1435794</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1392890</v>
+        <v>1402445</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1464524</v>
+        <v>1468046</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8181760563338217</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7937272762781282</v>
+        <v>0.7991724602706205</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8345474773834372</v>
+        <v>0.8365547403697298</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2816</v>
@@ -3529,19 +3529,19 @@
         <v>3008827</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2958553</v>
+        <v>2961238</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3053015</v>
+        <v>3059921</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8097020961427034</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7961729337011726</v>
+        <v>0.7968953237270859</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8215934645803364</v>
+        <v>0.8234519822117147</v>
       </c>
     </row>
     <row r="16">
@@ -3562,19 +3562,19 @@
         <v>439526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>424855</v>
+        <v>424451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450706</v>
+        <v>450368</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9154108583810434</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8848549316979035</v>
+        <v>0.8840136099882093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9386955650528125</v>
+        <v>0.9379906455350503</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>393</v>
@@ -3583,19 +3583,19 @@
         <v>438127</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>427920</v>
+        <v>427339</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>446067</v>
+        <v>446122</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9577168977633201</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9354065419988674</v>
+        <v>0.9341352786644603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9750731367638521</v>
+        <v>0.9751946450760941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>792</v>
@@ -3604,19 +3604,19 @@
         <v>877653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>861262</v>
+        <v>861381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>892648</v>
+        <v>891298</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9360524186425385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9185709242134038</v>
+        <v>0.9186973632267801</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9520455922560205</v>
+        <v>0.9506055568306956</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>82815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65193</v>
+        <v>66805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101885</v>
+        <v>101472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1724811922583876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.13577879132048</v>
+        <v>0.1391369608507544</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2121973670399971</v>
+        <v>0.2113376150309086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -3654,19 +3654,19 @@
         <v>84882</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67967</v>
+        <v>67977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104187</v>
+        <v>106168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1855461711410122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1485724291566373</v>
+        <v>0.1485929684727217</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2277456856495208</v>
+        <v>0.2320753960633157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -3675,19 +3675,19 @@
         <v>167697</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>144135</v>
+        <v>144064</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>193512</v>
+        <v>193652</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1788557324625419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1537254862674535</v>
+        <v>0.1536500736056896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2063885848984433</v>
+        <v>0.2065381994477222</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>12149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6863</v>
+        <v>6947</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20477</v>
+        <v>20529</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02530382786162878</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01429352682578343</v>
+        <v>0.01446824124888941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04264729339881395</v>
+        <v>0.04275595544446813</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -3725,19 +3725,19 @@
         <v>7080</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2817</v>
+        <v>2831</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16276</v>
+        <v>15282</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01547581750282794</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006158119947489778</v>
+        <v>0.006187514000454346</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03557849393356395</v>
+        <v>0.03340644745309842</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -3746,19 +3746,19 @@
         <v>19229</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11698</v>
+        <v>11607</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30475</v>
+        <v>31299</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02050863854507053</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01247638000994081</v>
+        <v>0.01237912478130653</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03250315658627317</v>
+        <v>0.03338164992756103</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>10775</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5518</v>
+        <v>5547</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19867</v>
+        <v>21073</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02244098156481517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01149145202214435</v>
+        <v>0.01155256376505424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04137707506408023</v>
+        <v>0.043889620715569</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6457</v>
+        <v>6407</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004306031643284488</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01411399658506128</v>
+        <v>0.01400478596257916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -3817,19 +3817,19 @@
         <v>12745</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6753</v>
+        <v>6616</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22846</v>
+        <v>22873</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01359274932397601</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007202699639081525</v>
+        <v>0.007055739492121283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02436648176460016</v>
+        <v>0.02439513741008812</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>2959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7884</v>
+        <v>8018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006161958899506948</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001956573798531606</v>
+        <v>0.001979850852594459</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01642051421641299</v>
+        <v>0.01669850087913161</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -3867,19 +3867,19 @@
         <v>9672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3897</v>
+        <v>4592</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17599</v>
+        <v>19077</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02114138914784977</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008518881130617864</v>
+        <v>0.01003881845667027</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03847105137964522</v>
+        <v>0.04170093587147728</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -3888,19 +3888,19 @@
         <v>12630</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6621</v>
+        <v>6709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22542</v>
+        <v>22866</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01347058000109757</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007062016888553465</v>
+        <v>0.007155065359043135</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02404154209825364</v>
+        <v>0.02438698546204554</v>
       </c>
     </row>
     <row r="21">
@@ -3917,19 +3917,19 @@
         <v>389343</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>369881</v>
+        <v>369835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>405788</v>
+        <v>406633</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8108927087195019</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7703589031517059</v>
+        <v>0.7702630559953648</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8451430530542908</v>
+        <v>0.8469041191938085</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>337</v>
@@ -3938,19 +3938,19 @@
         <v>373721</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>353283</v>
+        <v>357080</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>391165</v>
+        <v>391804</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8169298398546451</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7722538329958176</v>
+        <v>0.7805541118787077</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8550611172347735</v>
+        <v>0.8564573334582991</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>692</v>
@@ -3959,19 +3959,19 @@
         <v>763064</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>737649</v>
+        <v>735873</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>787205</v>
+        <v>787794</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8138382883093704</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.786732340497682</v>
+        <v>0.7848378165583483</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8395858456554836</v>
+        <v>0.8402139850665339</v>
       </c>
     </row>
     <row r="22">
@@ -3992,19 +3992,19 @@
         <v>3123824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3087440</v>
+        <v>3090127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3155647</v>
+        <v>3158641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9150362511999066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9043784777744864</v>
+        <v>0.9051657086680691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9243578545544267</v>
+        <v>0.925235058543926</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3077</v>
@@ -4013,19 +4013,19 @@
         <v>3320634</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3291793</v>
+        <v>3286651</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3350511</v>
+        <v>3347793</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9358888268397169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9277604518917547</v>
+        <v>0.9263112180392791</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9443095608215279</v>
+        <v>0.9435434340275436</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6005</v>
@@ -4034,19 +4034,19 @@
         <v>6444457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6395599</v>
+        <v>6398335</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6487416</v>
+        <v>6488359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9256635574856694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9186458069576875</v>
+        <v>0.9190387305079224</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9318341016497808</v>
+        <v>0.9319695874509323</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>410555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>372539</v>
+        <v>370695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>455436</v>
+        <v>450765</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1202606446049682</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1091247593636157</v>
+        <v>0.1085847131033469</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.133407253972456</v>
+        <v>0.1320388034745663</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>408</v>
@@ -4084,19 +4084,19 @@
         <v>445465</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>402910</v>
+        <v>407035</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>487755</v>
+        <v>486193</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1255499413912609</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1135564561571496</v>
+        <v>0.1147189945235574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1374689749524088</v>
+        <v>0.1370287236075275</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>789</v>
@@ -4105,19 +4105,19 @@
         <v>856020</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>800105</v>
+        <v>794499</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>919480</v>
+        <v>910404</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.12295628172698</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1149247876050024</v>
+        <v>0.1141195428120018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.132071574384051</v>
+        <v>0.1307677915665675</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>143221</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>121137</v>
+        <v>121814</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168726</v>
+        <v>171229</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04195251755611939</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0354838140529559</v>
+        <v>0.03568195739011992</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04942362458949105</v>
+        <v>0.05015664072102482</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>74</v>
@@ -4155,19 +4155,19 @@
         <v>82684</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65591</v>
+        <v>64984</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>105702</v>
+        <v>104581</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02330360952405999</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0184860983125807</v>
+        <v>0.01831510526498013</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02979113634745696</v>
+        <v>0.02947513547483459</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>215</v>
@@ -4176,19 +4176,19 @@
         <v>225905</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>196076</v>
+        <v>195835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>261257</v>
+        <v>260109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03244828839157676</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02816374104508188</v>
+        <v>0.0281291459105843</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03752625069404688</v>
+        <v>0.03736132413101</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>88041</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70110</v>
+        <v>69993</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110295</v>
+        <v>111631</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02578905985029718</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0205366080308058</v>
+        <v>0.02050257026391778</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03230777289916994</v>
+        <v>0.03269918470787994</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -4226,19 +4226,19 @@
         <v>61369</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46020</v>
+        <v>45512</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78707</v>
+        <v>79427</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01729621464216563</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01297021829836776</v>
+        <v>0.01282711830913059</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02218282276290355</v>
+        <v>0.02238563956517612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -4247,19 +4247,19 @@
         <v>149410</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124523</v>
+        <v>125607</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>176780</v>
+        <v>177019</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02146076636639413</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01788608243957196</v>
+        <v>0.01804178710291388</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02539216292306695</v>
+        <v>0.02542655779490628</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>35946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25111</v>
+        <v>24133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49836</v>
+        <v>50599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01052937638551963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007355652957798021</v>
+        <v>0.007069034459474625</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01459814685878415</v>
+        <v>0.01482162601454423</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -4297,19 +4297,19 @@
         <v>40396</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28836</v>
+        <v>27808</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55020</v>
+        <v>55539</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01138520936964131</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008127093735063784</v>
+        <v>0.007837508044402154</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01550673400239339</v>
+        <v>0.01565309441968866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -4318,19 +4318,19 @@
         <v>76342</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>58081</v>
+        <v>59898</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>95822</v>
+        <v>97877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0109655430926364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008342587658160931</v>
+        <v>0.0086035328838179</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01376354825995333</v>
+        <v>0.0140588188725458</v>
       </c>
     </row>
     <row r="27">
@@ -4347,19 +4347,19 @@
         <v>2737006</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2687800</v>
+        <v>2688025</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2786863</v>
+        <v>2784982</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8017287645811473</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7873152052484819</v>
+        <v>0.7873812037699975</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.816332896542487</v>
+        <v>0.8157819129016423</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2719</v>
@@ -4368,19 +4368,19 @@
         <v>2943017</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2897511</v>
+        <v>2890633</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2990749</v>
+        <v>2984556</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8294610347676221</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8166356809526791</v>
+        <v>0.8146973092546635</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8429139106077361</v>
+        <v>0.8411685094109436</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5283</v>
@@ -4389,19 +4389,19 @@
         <v>5680021</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5609675</v>
+        <v>5609801</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5741735</v>
+        <v>5744984</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8158622382758086</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8057578439372903</v>
+        <v>0.8057758972519631</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8247265651459116</v>
+        <v>0.8251932898141968</v>
       </c>
     </row>
     <row r="28">
@@ -4661,19 +4661,19 @@
         <v>688162</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>671358</v>
+        <v>670785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>701834</v>
+        <v>701619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9144258322550189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8920968691555573</v>
+        <v>0.8913351531637824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9325924571141632</v>
+        <v>0.9323074775588339</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>853</v>
@@ -4682,19 +4682,19 @@
         <v>954298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>940068</v>
+        <v>940809</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>965445</v>
+        <v>965207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9605747347295794</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9462504758038313</v>
+        <v>0.9469963039868691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.97179507124666</v>
+        <v>0.9715551751118199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1549</v>
@@ -4703,19 +4703,19 @@
         <v>1642460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1620177</v>
+        <v>1620880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1660680</v>
+        <v>1660394</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9406839256514445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9279215997261906</v>
+        <v>0.9283243024895304</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9511186697974615</v>
+        <v>0.9509548153921005</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>61269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48258</v>
+        <v>47719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77314</v>
+        <v>76754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08141361490007737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06412537253523976</v>
+        <v>0.06340893029745727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1027345419184192</v>
+        <v>0.1019900297040572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4753,19 +4753,19 @@
         <v>90218</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72917</v>
+        <v>72759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110322</v>
+        <v>111311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09081170849705668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07339701196577124</v>
+        <v>0.07323721981482111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1110471016287531</v>
+        <v>0.1120426855523855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -4774,19 +4774,19 @@
         <v>151487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129033</v>
+        <v>129628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176163</v>
+        <v>174067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0867610014290174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07390060487932341</v>
+        <v>0.07424184406412243</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1008937126536042</v>
+        <v>0.09969314358985309</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>27669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19145</v>
+        <v>18842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39961</v>
+        <v>39304</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03676652448644693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02544006067905143</v>
+        <v>0.02503743654648596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0530997139399946</v>
+        <v>0.05222704441591717</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -4824,19 +4824,19 @@
         <v>41069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29225</v>
+        <v>28771</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55900</v>
+        <v>54595</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04133869977296021</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02941688084621054</v>
+        <v>0.02895991765162636</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05626768248591557</v>
+        <v>0.05495413508254327</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -4845,19 +4845,19 @@
         <v>68738</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53197</v>
+        <v>54492</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89848</v>
+        <v>87875</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0393680295983892</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03046763015644317</v>
+        <v>0.0312092189150915</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05145878620668459</v>
+        <v>0.05032868512670081</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>11023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5631</v>
+        <v>5332</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19325</v>
+        <v>19217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01464784852637952</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007482278379469521</v>
+        <v>0.007084720992282455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02567861430883678</v>
+        <v>0.02553587539253749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4895,19 +4895,19 @@
         <v>5783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11565</v>
+        <v>12296</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005820919585082377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001929479012772555</v>
+        <v>0.002083279413030627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01164056110388507</v>
+        <v>0.0123763868247139</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -4916,19 +4916,19 @@
         <v>16806</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10278</v>
+        <v>9636</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26808</v>
+        <v>26095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009625446863155581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00588638348676488</v>
+        <v>0.005519089077206062</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01535343240292799</v>
+        <v>0.01494563153199791</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>26202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17856</v>
+        <v>17436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38812</v>
+        <v>36482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03481741945581143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0237265152687086</v>
+        <v>0.02316917106477204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05157374393905097</v>
+        <v>0.04847765273898293</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -4966,19 +4966,19 @@
         <v>42160</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30392</v>
+        <v>30553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59283</v>
+        <v>57043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04243737004719311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03059179838712471</v>
+        <v>0.03075347084356212</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0596728717906516</v>
+        <v>0.05741789172446789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -4987,19 +4987,19 @@
         <v>68362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52884</v>
+        <v>53094</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>86195</v>
+        <v>84824</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03915306697017962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03028823928884008</v>
+        <v>0.03040825091301443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04936607864071438</v>
+        <v>0.04858085530141219</v>
       </c>
     </row>
     <row r="9">
@@ -5016,19 +5016,19 @@
         <v>629319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>607042</v>
+        <v>608932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>649736</v>
+        <v>649218</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8362357338069685</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8066344895409522</v>
+        <v>0.8091457327470307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.863365643921106</v>
+        <v>0.8626768910894896</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>784</v>
@@ -5037,19 +5037,19 @@
         <v>878631</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>856741</v>
+        <v>857273</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>897374</v>
+        <v>897494</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8844099423893659</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8623754089373368</v>
+        <v>0.8629116789336185</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9032759461112527</v>
+        <v>0.9033968197872632</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1424</v>
@@ -5058,19 +5058,19 @@
         <v>1507950</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1476555</v>
+        <v>1479818</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1534837</v>
+        <v>1535730</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.863646198637693</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8456651057080677</v>
+        <v>0.8475340577513416</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8790446950599693</v>
+        <v>0.8795560578665014</v>
       </c>
     </row>
     <row r="10">
@@ -5091,19 +5091,19 @@
         <v>1863620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1833614</v>
+        <v>1834101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1890282</v>
+        <v>1891843</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8984770925209694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8840104381507949</v>
+        <v>0.8842452416455838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9113310501223071</v>
+        <v>0.9120838564242716</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1763</v>
@@ -5112,19 +5112,19 @@
         <v>1839911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1816112</v>
+        <v>1814286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1862473</v>
+        <v>1861666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9263279074558683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9143456391631857</v>
+        <v>0.9134264226825871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9376867046360209</v>
+        <v>0.9372807893562028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3520</v>
@@ -5133,19 +5133,19 @@
         <v>3703532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3663914</v>
+        <v>3664769</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3741647</v>
+        <v>3739069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9121008485135209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9023439033917703</v>
+        <v>0.9025545329553903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9214879566189369</v>
+        <v>0.9208528580897941</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>287985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253717</v>
+        <v>254227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320142</v>
+        <v>317702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1388415337389238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1223203596020927</v>
+        <v>0.1225664498786537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.154344716923155</v>
+        <v>0.1531687458211681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>273</v>
@@ -5183,19 +5183,19 @@
         <v>282987</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251426</v>
+        <v>252778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314109</v>
+        <v>316560</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1424735416577362</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1265837613794067</v>
+        <v>0.1272645566033282</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1581424548224005</v>
+        <v>0.1593764768237939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>538</v>
@@ -5204,19 +5204,19 @@
         <v>570972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>526997</v>
+        <v>526098</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618115</v>
+        <v>615949</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1406181995120647</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1297881329665134</v>
+        <v>0.1295667737056491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1522286490071841</v>
+        <v>0.1516951108577348</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>173035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>149082</v>
+        <v>149841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>199301</v>
+        <v>201356</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08342235395828419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07187465771599337</v>
+        <v>0.07224017592059519</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09608598679878239</v>
+        <v>0.09707651291436309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>130</v>
@@ -5254,19 +5254,19 @@
         <v>136243</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>115398</v>
+        <v>114650</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161047</v>
+        <v>161521</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06859315318271783</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05809874515353833</v>
+        <v>0.05772214793313934</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08108117144852298</v>
+        <v>0.08131986316854861</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>294</v>
@@ -5275,19 +5275,19 @@
         <v>309277</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>276629</v>
+        <v>278503</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>341828</v>
+        <v>347251</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07616836827050037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06812778183170001</v>
+        <v>0.06858923647151775</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08418505246864291</v>
+        <v>0.08552050558801459</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>47813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35801</v>
+        <v>34793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64774</v>
+        <v>64232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02305129123599268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01726022011671807</v>
+        <v>0.01677421696387639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03122828275400815</v>
+        <v>0.03096703001571562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -5325,19 +5325,19 @@
         <v>28501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19686</v>
+        <v>18579</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40947</v>
+        <v>40526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01434920570945463</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009910958455924442</v>
+        <v>0.009353792789994477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02061533154428894</v>
+        <v>0.02040311006773653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -5346,19 +5346,19 @@
         <v>76314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59303</v>
+        <v>59155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94484</v>
+        <v>95505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01879450054182482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01460504481727517</v>
+        <v>0.01456850327844155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02326937192276704</v>
+        <v>0.02352082907194238</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>84094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66810</v>
+        <v>67876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104982</v>
+        <v>104085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04054282156990787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03220987916788041</v>
+        <v>0.03272397035797466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05061343583338746</v>
+        <v>0.0501810512817071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -5396,19 +5396,19 @@
         <v>73757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58636</v>
+        <v>59085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92234</v>
+        <v>95322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03713403515498809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0295210108937293</v>
+        <v>0.02974702911901321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04643623967381869</v>
+        <v>0.04799131870512865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -5417,19 +5417,19 @@
         <v>157851</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133966</v>
+        <v>135103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>186792</v>
+        <v>183973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03887534884222841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03299286538225518</v>
+        <v>0.03327288471817406</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04600279981584542</v>
+        <v>0.04530868176645452</v>
       </c>
     </row>
     <row r="15">
@@ -5446,19 +5446,19 @@
         <v>1733555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1700017</v>
+        <v>1698758</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1766852</v>
+        <v>1769349</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8357709340204539</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8196015535898988</v>
+        <v>0.8189947159395022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8518236165740247</v>
+        <v>0.8530275446227471</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1643</v>
@@ -5467,19 +5467,19 @@
         <v>1715734</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1683707</v>
+        <v>1684942</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1744522</v>
+        <v>1746056</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8638092501698621</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8476848938716813</v>
+        <v>0.8483066887406044</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8783026218603359</v>
+        <v>0.8790753187691867</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3276</v>
@@ -5488,19 +5488,19 @@
         <v>3449289</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3398835</v>
+        <v>3400914</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3492119</v>
+        <v>3496355</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8494864097993295</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8370605836986437</v>
+        <v>0.8375725807211244</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8600344832805568</v>
+        <v>0.8610776593363677</v>
       </c>
     </row>
     <row r="16">
@@ -5521,19 +5521,19 @@
         <v>513029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>501279</v>
+        <v>499577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>523899</v>
+        <v>524142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9380918092689242</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9166058797467583</v>
+        <v>0.9134939465847245</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9579672236998192</v>
+        <v>0.9584111773907477</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>487</v>
@@ -5542,19 +5542,19 @@
         <v>509854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>496613</v>
+        <v>497684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>521520</v>
+        <v>521421</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9284589173323996</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9043469178289297</v>
+        <v>0.9062972656597541</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9497038765578413</v>
+        <v>0.9495227893365897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>956</v>
@@ -5563,19 +5563,19 @@
         <v>1022884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1004333</v>
+        <v>1006143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1038593</v>
+        <v>1038151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9332654575563466</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.916339795096703</v>
+        <v>0.9179908318717577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9475978540823898</v>
+        <v>0.9471945733413816</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>88169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70422</v>
+        <v>70922</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105751</v>
+        <v>107583</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1612203555617966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1287689269960557</v>
+        <v>0.1296825946689652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1933684860944289</v>
+        <v>0.1967191986976256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -5613,19 +5613,19 @@
         <v>96292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>78790</v>
+        <v>78428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113491</v>
+        <v>114724</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.175350099132419</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1434787980266066</v>
+        <v>0.1428202556731057</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2066713242987955</v>
+        <v>0.2089149064327659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>174</v>
@@ -5634,19 +5634,19 @@
         <v>184461</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>159319</v>
+        <v>159055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210596</v>
+        <v>209496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1682997573167133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1453602692037138</v>
+        <v>0.145119389842764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1921452004877314</v>
+        <v>0.1911414482663153</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>48155</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35888</v>
+        <v>35467</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63077</v>
+        <v>64636</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08805239457559945</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06562305527191563</v>
+        <v>0.06485346317444733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1153381571070458</v>
+        <v>0.1181891761906255</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -5684,19 +5684,19 @@
         <v>33067</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23261</v>
+        <v>23374</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46617</v>
+        <v>46539</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06021511347744002</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04235817249047026</v>
+        <v>0.04256406461839944</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.084890876706168</v>
+        <v>0.08474973889148645</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>75</v>
@@ -5705,19 +5705,19 @@
         <v>81221</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65862</v>
+        <v>64020</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>102139</v>
+        <v>101570</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07410512825236919</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06009203069103977</v>
+        <v>0.05841073396884159</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09319039272448601</v>
+        <v>0.09267098298132452</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>5542</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1937</v>
+        <v>1997</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13043</v>
+        <v>12277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01013372383371195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003541898701765796</v>
+        <v>0.003651020896182354</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02384951853143981</v>
+        <v>0.02244906960611494</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4717</v>
+        <v>4693</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001725740159251696</v>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008589837264696362</v>
+        <v>0.008546329744052304</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -5776,19 +5776,19 @@
         <v>6490</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2481</v>
+        <v>2005</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13662</v>
+        <v>12927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005921085856045988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002263770726207462</v>
+        <v>0.001829353859199424</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01246516075588804</v>
+        <v>0.01179397552382982</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>26612</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17112</v>
+        <v>17507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38563</v>
+        <v>39306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04866114083676965</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03128904453984341</v>
+        <v>0.03201302337525894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07051374994791422</v>
+        <v>0.07187267464822608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -5826,19 +5826,19 @@
         <v>30532</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20761</v>
+        <v>21240</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43586</v>
+        <v>43442</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05559919432442728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03780611830234229</v>
+        <v>0.03867937543315939</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07937104700185529</v>
+        <v>0.07910925773538019</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -5847,19 +5847,19 @@
         <v>57144</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43527</v>
+        <v>43727</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74380</v>
+        <v>76412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0521373021549659</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03971387388787454</v>
+        <v>0.03989636446419112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06786366640550946</v>
+        <v>0.06971715335252442</v>
       </c>
     </row>
     <row r="21">
@@ -5876,19 +5876,19 @@
         <v>486015</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>465449</v>
+        <v>468203</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>499442</v>
+        <v>500161</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8886949675711153</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8510904365721762</v>
+        <v>0.8561252261031488</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9132463708313561</v>
+        <v>0.9145608074749375</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>476</v>
@@ -5897,19 +5897,19 @@
         <v>499108</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>484634</v>
+        <v>484522</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>511677</v>
+        <v>510574</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9088910060683693</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8825328179825649</v>
+        <v>0.8823278778760323</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9317795155115358</v>
+        <v>0.9297709583351405</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>923</v>
@@ -5918,19 +5918,19 @@
         <v>985124</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>962177</v>
+        <v>963869</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1002880</v>
+        <v>1006238</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8988137549125284</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8778775061718276</v>
+        <v>0.8794205239362634</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9150143115946893</v>
+        <v>0.9180773528438678</v>
       </c>
     </row>
     <row r="22">
@@ -5951,19 +5951,19 @@
         <v>3064812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3027906</v>
+        <v>3031304</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3096577</v>
+        <v>3097523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9084565477322653</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8975171658455899</v>
+        <v>0.8985242906257522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.917872407065102</v>
+        <v>0.9181525451178286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3103</v>
@@ -5972,19 +5972,19 @@
         <v>3304064</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3271466</v>
+        <v>3273072</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3333906</v>
+        <v>3330217</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9363009320663468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9270634999911819</v>
+        <v>0.9275186102423392</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9447576028670566</v>
+        <v>0.9437123623050948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6025</v>
@@ -5993,19 +5993,19 @@
         <v>6368876</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6323342</v>
+        <v>6318701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6412058</v>
+        <v>6410386</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9226917775046072</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9160950185568936</v>
+        <v>0.9154225944986721</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9289476847602615</v>
+        <v>0.928705520744509</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>437423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>398634</v>
+        <v>400835</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>481591</v>
+        <v>476975</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1296587683032776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1181610203260804</v>
+        <v>0.118813590422724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1427508921454586</v>
+        <v>0.1413824686852571</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>449</v>
@@ -6043,19 +6043,19 @@
         <v>469497</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>432027</v>
+        <v>425125</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>510075</v>
+        <v>505547</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1330454106916301</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1224270688558207</v>
+        <v>0.1204714489768694</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.144544297930998</v>
+        <v>0.1432611554840505</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>858</v>
@@ -6064,19 +6064,19 @@
         <v>906920</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>857831</v>
+        <v>848574</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>966746</v>
+        <v>963696</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1313901634735397</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1242784103408112</v>
+        <v>0.1229372058443069</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1400574808883303</v>
+        <v>0.1396155289903334</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>248858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>219897</v>
+        <v>218711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>279025</v>
+        <v>279666</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07376535496026981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06518082717518169</v>
+        <v>0.0648293754471225</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0827073491948047</v>
+        <v>0.0828971310808817</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>197</v>
@@ -6114,19 +6114,19 @@
         <v>210378</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>181613</v>
+        <v>184613</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>239659</v>
+        <v>245613</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05961654186924766</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0514652462440745</v>
+        <v>0.05231525061147424</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06791409784983729</v>
+        <v>0.06960134402524903</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>433</v>
@@ -6135,19 +6135,19 @@
         <v>459236</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>415568</v>
+        <v>415803</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>500878</v>
+        <v>500525</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06653188184985549</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06020550156261628</v>
+        <v>0.06023946799904638</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07256475226402544</v>
+        <v>0.07251358216821133</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>64378</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49255</v>
+        <v>51027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83310</v>
+        <v>82209</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01908272190147094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01460002328451631</v>
+        <v>0.01512509422738244</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02469436300584965</v>
+        <v>0.02436800863684869</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -6185,19 +6185,19 @@
         <v>35232</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24985</v>
+        <v>25343</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49976</v>
+        <v>48824</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009983866792130282</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007080091430068559</v>
+        <v>0.007181583432184298</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01416225843231336</v>
+        <v>0.01383569385521222</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -6206,19 +6206,19 @@
         <v>99610</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80587</v>
+        <v>80722</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121593</v>
+        <v>121061</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01443100141116819</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01167498993209379</v>
+        <v>0.01169464376050906</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01761583545359423</v>
+        <v>0.01753879248589951</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>136908</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>115638</v>
+        <v>115283</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>162132</v>
+        <v>163087</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04058167441743013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03427671404548274</v>
+        <v>0.03417168374715641</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04805851991440099</v>
+        <v>0.04834157324358953</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>136</v>
@@ -6256,19 +6256,19 @@
         <v>146449</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123113</v>
+        <v>122619</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169897</v>
+        <v>170867</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04150051592851384</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03488765407789559</v>
+        <v>0.03474772221676561</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04814504338730457</v>
+        <v>0.04841997468087608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>264</v>
@@ -6277,19 +6277,19 @@
         <v>283357</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>249962</v>
+        <v>247297</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>315337</v>
+        <v>316025</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04105142515343878</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03621330138366647</v>
+        <v>0.03582720284375037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04568453023964743</v>
+        <v>0.04578412609013168</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>2848889</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2805493</v>
+        <v>2808384</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2891149</v>
+        <v>2890120</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8444538856287463</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8315905020730088</v>
+        <v>0.832447441478926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8569803467999005</v>
+        <v>0.8566754162436202</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2903</v>
@@ -6327,19 +6327,19 @@
         <v>3093474</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3051918</v>
+        <v>3052972</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3130281</v>
+        <v>3131218</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8766242821683335</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8648481333026687</v>
+        <v>0.8651468203320727</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8870545635713043</v>
+        <v>0.8873201996422585</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5623</v>
@@ -6348,19 +6348,19 @@
         <v>5942364</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5886665</v>
+        <v>5880422</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6001945</v>
+        <v>5997458</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8609007562477474</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8528312840400987</v>
+        <v>0.8519268665417241</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8695326273497834</v>
+        <v>0.8688825564002862</v>
       </c>
     </row>
     <row r="28">
